--- a/Tables/Data.xlsx
+++ b/Tables/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KPMG-Contest\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA4331B-2DCB-4F57-A19F-B860C827C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D5EDC5-4888-40F9-AEC0-C090149CB13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3609F5BA-C8A2-413D-82B7-F109926B82BC}"/>
+    <workbookView xWindow="-30828" yWindow="-36" windowWidth="30936" windowHeight="16776" xr2:uid="{3609F5BA-C8A2-413D-82B7-F109926B82BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Game Name</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>mjzpaj</t>
-  </si>
-  <si>
-    <t>ARPG</t>
   </si>
   <si>
     <t>impact</t>
@@ -200,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +222,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,13 +265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,7 +591,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +601,7 @@
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="32.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,13 +622,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -720,16 +726,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -749,16 +755,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>0.09</v>
@@ -778,16 +784,16 @@
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>8.9999999999999993E-3</v>
@@ -807,13 +813,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -836,13 +842,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -865,13 +871,13 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -894,16 +900,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>1.7</v>
@@ -923,16 +929,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>1.8</v>
@@ -952,16 +958,16 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>0.72</v>
@@ -981,13 +987,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -1010,13 +1016,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1039,16 +1045,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2">
         <v>7.8E-2</v>
